--- a/Methods/Raspberry_Results/methods.xlsx
+++ b/Methods/Raspberry_Results/methods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="FingerKnn4" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="FingerKnn2" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="7">
   <si>
     <t xml:space="preserve">Real X</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of executions:</t>
   </si>
 </sst>
 </file>
@@ -549,6 +553,413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5.05665372976325</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7.53804876036549</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.00351762771606445</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4.86908755315642</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.58585972686162</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-1.57510611647158</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.00784683227539063</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5.32991371521703</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4.35618511750805</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.62578298592961</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.00981736183166504</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.7772440963799</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>8.59255942372088</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10.7399449460558</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.00303483009338379</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8.32871625463878</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-1.8076599496001</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>8.00137624668449</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.00250959396362305</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8.12392423939228</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3.91322616652906</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4.61559045954938</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.0123591423034668</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4.13267501835881</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8.66148058833245</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7.78592571286994</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.00264453887939453</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8.60649645509125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.82379907564578</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5.18682514226004</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.00258207321166992</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.26207977037751</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-3.12558571223969</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>13.9052971484581</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.00323009490966797</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9.36450911927078</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.40651152228009</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6.09031270963019</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.00236845016479492</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.45527720210158</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4.50724584147636</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4.5628185114286</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.00251889228820801</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.62479319179559</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.28392944511862</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5.78002319646129</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.00215005874633789</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3.77315628288046</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.70871666762948</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>14.7229931071785</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.00441813468933106</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5.10227283558921</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.98122443196609</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>8.9038517695522</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.00294041633605957</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.14323344155767</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>10.2170082823894</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>9.90141974248763</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.00271463394165039</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>8.56834633105734</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-5.10270750141464</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>15.3173204375574</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.00433254241943359</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>9.43164684374007</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-1.81367339442714</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>13.6687700988394</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.00468325614929199</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4.75039676496555</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-0.96673447689274</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>12.931055427691</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.00574874877929688</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.68047099081641</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -964,7 +1375,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1371,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1758,6 +2169,14 @@
       </c>
       <c r="F19" s="1" t="n">
         <v>3.73835823295843</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>465552</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2187,7 +2606,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
